--- a/data/trans_orig/P15C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15C-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4150</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1033</v>
+        <v>1067</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9042</v>
+        <v>9311</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1648670744213639</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0410210376444467</v>
+        <v>0.04238857809055943</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3591967363463512</v>
+        <v>0.3698659732344467</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6021</v>
+        <v>5514</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02358181609979895</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1322570948991802</v>
+        <v>0.1211060548561831</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -786,19 +786,19 @@
         <v>5224</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2050</v>
+        <v>2038</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10722</v>
+        <v>11021</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07388727425548323</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02899287576052104</v>
+        <v>0.02882862978859902</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.151648608629252</v>
+        <v>0.1558836673321378</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>2904</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>813</v>
+        <v>833</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7131</v>
+        <v>7548</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1153387004811102</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03231327339529035</v>
+        <v>0.03310378566939664</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2832618632693629</v>
+        <v>0.2998230249595751</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -836,19 +836,19 @@
         <v>3485</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9389</v>
+        <v>9336</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07655278523605311</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02262187289047262</v>
+        <v>0.02266045014440422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2062210609292992</v>
+        <v>0.2050712843691524</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -857,19 +857,19 @@
         <v>6389</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2351</v>
+        <v>2153</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12795</v>
+        <v>12773</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09036274148746426</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03325143409229658</v>
+        <v>0.03045150279712399</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1809675237690328</v>
+        <v>0.1806538812866354</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>11776</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7047</v>
+        <v>6746</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17009</v>
+        <v>16927</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4677671575056176</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2799432830595134</v>
+        <v>0.2679726966267484</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6756616092439491</v>
+        <v>0.6723960039011964</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -907,19 +907,19 @@
         <v>31654</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24746</v>
+        <v>24959</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37163</v>
+        <v>36867</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6952724781957865</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5435239750463927</v>
+        <v>0.5482028450655201</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8162603647391138</v>
+        <v>0.8097632709420217</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>43</v>
@@ -928,19 +928,19 @@
         <v>43430</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>35212</v>
+        <v>35136</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>51660</v>
+        <v>52001</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6142678530414298</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4980305504337376</v>
+        <v>0.4969541345991674</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7306739129007381</v>
+        <v>0.735497006707892</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>6345</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2747</v>
+        <v>2674</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12086</v>
+        <v>11686</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2520270675919083</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1091208626555282</v>
+        <v>0.1062099901079195</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4801011656030321</v>
+        <v>0.4641893663071089</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -978,19 +978,19 @@
         <v>6748</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2842</v>
+        <v>2978</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12729</v>
+        <v>12436</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1482160366421765</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0624134296368067</v>
+        <v>0.0654064470144291</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2795914523590806</v>
+        <v>0.2731508234184489</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -999,19 +999,19 @@
         <v>13092</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7319</v>
+        <v>7549</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19974</v>
+        <v>21007</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1851785728301652</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1035206536369542</v>
+        <v>0.1067731920640345</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2825047857849749</v>
+        <v>0.2971166461593995</v>
       </c>
     </row>
     <row r="8">
@@ -1041,19 +1041,19 @@
         <v>2567</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>828</v>
+        <v>806</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6998</v>
+        <v>6168</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05637688382618493</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01818729457672131</v>
+        <v>0.01771116420863721</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1536972638691864</v>
+        <v>0.1354792546454725</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1062,19 +1062,19 @@
         <v>2567</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7121</v>
+        <v>7012</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03630355838545748</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01176482817003377</v>
+        <v>0.01181761924519976</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1007248739097382</v>
+        <v>0.09917511431764206</v>
       </c>
     </row>
     <row r="9">
@@ -1213,19 +1213,19 @@
         <v>10930</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5962</v>
+        <v>5814</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18168</v>
+        <v>18415</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1392298042037033</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07594368792118526</v>
+        <v>0.07405695969373917</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2314354364030929</v>
+        <v>0.2345774141248353</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>2821</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7604</v>
+        <v>6880</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0805036241587621</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02545977296662459</v>
+        <v>0.02563330280378717</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2170071307301639</v>
+        <v>0.1963481757199938</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -1255,19 +1255,19 @@
         <v>13751</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7958</v>
+        <v>7830</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21013</v>
+        <v>21211</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.121105715377103</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07008875914825559</v>
+        <v>0.06896071194275868</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1850642298629029</v>
+        <v>0.1868060329851239</v>
       </c>
     </row>
     <row r="12">
@@ -1284,19 +1284,19 @@
         <v>7993</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3304</v>
+        <v>3340</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15873</v>
+        <v>15513</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1018158216120716</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04208894540984276</v>
+        <v>0.04254980626962031</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2022023516103968</v>
+        <v>0.1976077449862312</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4852</v>
+        <v>6124</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02904080766001271</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1384522030325563</v>
+        <v>0.1747652414638485</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1326,19 +1326,19 @@
         <v>9011</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4251</v>
+        <v>4293</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17068</v>
+        <v>17588</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0793559780429033</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03743823703707749</v>
+        <v>0.0378052025181865</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1503177326549129</v>
+        <v>0.1549010798953533</v>
       </c>
     </row>
     <row r="13">
@@ -1355,19 +1355,19 @@
         <v>33808</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25084</v>
+        <v>26205</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42594</v>
+        <v>43355</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4306551822867049</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3195307817919324</v>
+        <v>0.3338109130230607</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5425806917520045</v>
+        <v>0.552276662765299</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1376,19 +1376,19 @@
         <v>21978</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16119</v>
+        <v>15865</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27138</v>
+        <v>27161</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6271842607229802</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4599786080284122</v>
+        <v>0.4527326896527359</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7744371163177129</v>
+        <v>0.7750851938977192</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -1397,19 +1397,19 @@
         <v>55786</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44624</v>
+        <v>44765</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66407</v>
+        <v>66486</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4913080371439958</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3930065661575512</v>
+        <v>0.3942428317591058</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5848431864834807</v>
+        <v>0.5855402455589379</v>
       </c>
     </row>
     <row r="14">
@@ -1426,19 +1426,19 @@
         <v>19185</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12204</v>
+        <v>12028</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27614</v>
+        <v>27805</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2443805854041822</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1554640926314161</v>
+        <v>0.1532211314613096</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3517626071283623</v>
+        <v>0.3541959642507644</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -1447,19 +1447,19 @@
         <v>7225</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3059</v>
+        <v>3067</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12659</v>
+        <v>12826</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2061675415392052</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08729372185423943</v>
+        <v>0.08752181612186706</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3612545732566642</v>
+        <v>0.3660054531241037</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -1468,19 +1468,19 @@
         <v>26409</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18002</v>
+        <v>17588</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36791</v>
+        <v>36824</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2325872659542604</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1585413193568277</v>
+        <v>0.1549007415681214</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3240197053802004</v>
+        <v>0.3243047656645512</v>
       </c>
     </row>
     <row r="15">
@@ -1497,19 +1497,19 @@
         <v>6588</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2758</v>
+        <v>2854</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12428</v>
+        <v>12519</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.08391860649333809</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03512910762049674</v>
+        <v>0.03634956455110679</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1583177152915852</v>
+        <v>0.1594688015115835</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6208</v>
+        <v>6047</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05710376591903983</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1771728567526751</v>
+        <v>0.1725757838834375</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>9</v>
@@ -1539,19 +1539,19 @@
         <v>8589</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3886</v>
+        <v>4404</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>14997</v>
+        <v>15862</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07564300348173759</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03422019856447868</v>
+        <v>0.03878432292584845</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1320774697947668</v>
+        <v>0.1396994271802231</v>
       </c>
     </row>
     <row r="16">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6182</v>
+        <v>5697</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1460977813836609</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.467030706711914</v>
+        <v>0.4304102243606497</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5640</v>
+        <v>5998</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06112871279254128</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1782910222139086</v>
+        <v>0.1896123536258243</v>
       </c>
     </row>
     <row r="19">
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5762</v>
+        <v>5809</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06057333259625139</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3132238240330145</v>
+        <v>0.3157485010539751</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7294</v>
+        <v>6052</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03522886934639785</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2305745127844906</v>
+        <v>0.1913109026369661</v>
       </c>
     </row>
     <row r="20">
@@ -1816,19 +1816,19 @@
         <v>13467</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8241</v>
+        <v>8139</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17172</v>
+        <v>17229</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7320457609249327</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4479413756749337</v>
+        <v>0.4423977415013147</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9333876964218554</v>
+        <v>0.9365380278830209</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1837,19 +1837,19 @@
         <v>7771</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3206</v>
+        <v>3620</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11195</v>
+        <v>11621</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.587147083344889</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2421885680950292</v>
+        <v>0.2734901301162829</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8457759067110054</v>
+        <v>0.8779817218950349</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -1858,19 +1858,19 @@
         <v>21239</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14484</v>
+        <v>15031</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>26056</v>
+        <v>25974</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6714187646630981</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4578754206914451</v>
+        <v>0.4751640158143484</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8236963536998162</v>
+        <v>0.8210906260590488</v>
       </c>
     </row>
     <row r="21">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6977</v>
+        <v>6969</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09933529888002084</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3792527124322386</v>
+        <v>0.3788320286775587</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1908,19 +1908,19 @@
         <v>3531</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1013</v>
+        <v>986</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7881</v>
+        <v>8027</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2667551352714502</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07651219655453892</v>
+        <v>0.07449725419099816</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5954380147740482</v>
+        <v>0.6064191945928733</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -1929,19 +1929,19 @@
         <v>5358</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1886</v>
+        <v>2010</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>12289</v>
+        <v>12111</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1693853639639694</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05962046001631827</v>
+        <v>0.06353258242358044</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3884787582500778</v>
+        <v>0.3828678193213501</v>
       </c>
     </row>
     <row r="22">
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5072</v>
+        <v>4390</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05160366065290984</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2756946269350146</v>
+        <v>0.2386070628634497</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4938</v>
+        <v>5049</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03001219416231552</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.156096058919206</v>
+        <v>0.1596261215511272</v>
       </c>
     </row>
     <row r="23">
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5676</v>
+        <v>4952</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05644194694588523</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3085338870375539</v>
+        <v>0.2691685604389069</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5127</v>
+        <v>4448</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03282609507167784</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1620811793521809</v>
+        <v>0.1406167884300082</v>
       </c>
     </row>
     <row r="24">
@@ -2159,19 +2159,19 @@
         <v>15080</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8936</v>
+        <v>9001</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23547</v>
+        <v>23259</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1235337713610623</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07320465800871609</v>
+        <v>0.07373159972507716</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1928917182486709</v>
+        <v>0.1905344572394938</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2180,19 +2180,19 @@
         <v>5828</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2101</v>
+        <v>2019</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11694</v>
+        <v>11776</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06213210892109747</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02239644066177822</v>
+        <v>0.02152475055651809</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1246663957739579</v>
+        <v>0.1255337103114302</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -2201,19 +2201,19 @@
         <v>20909</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13108</v>
+        <v>12942</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>29580</v>
+        <v>29877</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09685305734195382</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06071680145641455</v>
+        <v>0.05994950220290294</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1370207367820103</v>
+        <v>0.1383977060757475</v>
       </c>
     </row>
     <row r="26">
@@ -2230,19 +2230,19 @@
         <v>12011</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5933</v>
+        <v>6686</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19251</v>
+        <v>20715</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09838894370172617</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04860489707551121</v>
+        <v>0.05477095599994264</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1576961138555201</v>
+        <v>0.1696928383937832</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2251,19 +2251,19 @@
         <v>4503</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10998</v>
+        <v>11001</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04800283007643459</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01217789423649574</v>
+        <v>0.01216080153899849</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1172441916030328</v>
+        <v>0.1172759031165538</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>15</v>
@@ -2272,19 +2272,19 @@
         <v>16514</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9639</v>
+        <v>10051</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26321</v>
+        <v>26436</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07649478913408513</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04464861867744126</v>
+        <v>0.0465559802713334</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1219259571267101</v>
+        <v>0.1224571277028637</v>
       </c>
     </row>
     <row r="27">
@@ -2301,19 +2301,19 @@
         <v>59051</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>48068</v>
+        <v>48283</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>70033</v>
+        <v>71006</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.483729852495603</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3937608421993906</v>
+        <v>0.3955228375796015</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5736905054613078</v>
+        <v>0.5816596815142597</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>58</v>
@@ -2322,19 +2322,19 @@
         <v>61404</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>52828</v>
+        <v>51446</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>70419</v>
+        <v>69501</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.654581253473637</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5631584684405249</v>
+        <v>0.5484329768786816</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7506849732395363</v>
+        <v>0.7409002054752515</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>116</v>
@@ -2343,19 +2343,19 @@
         <v>120454</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>104857</v>
+        <v>105167</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>134731</v>
+        <v>135156</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5579694933801791</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4857196114882986</v>
+        <v>0.4871567254247932</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6241022946716396</v>
+        <v>0.6260693067064627</v>
       </c>
     </row>
     <row r="28">
@@ -2372,19 +2372,19 @@
         <v>27357</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18108</v>
+        <v>17939</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>38571</v>
+        <v>36816</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2240981239700478</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1483377113965372</v>
+        <v>0.1469498739517945</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3159661776146276</v>
+        <v>0.3015864818945151</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>17</v>
@@ -2393,19 +2393,19 @@
         <v>17503</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10599</v>
+        <v>11318</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25786</v>
+        <v>26918</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1865898717543505</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1129874335209654</v>
+        <v>0.1206578380883843</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2748902005865988</v>
+        <v>0.2869581366620914</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>42</v>
@@ -2414,19 +2414,19 @@
         <v>44860</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>33639</v>
+        <v>33101</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>60495</v>
+        <v>57502</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2077997549852978</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1558215392208164</v>
+        <v>0.1533318500785168</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2802252935361127</v>
+        <v>0.2663606675871378</v>
       </c>
     </row>
     <row r="29">
@@ -2443,19 +2443,19 @@
         <v>7537</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3617</v>
+        <v>3287</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14576</v>
+        <v>13673</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06174313067954923</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02962620104286583</v>
+        <v>0.02692669455730846</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1194052500475963</v>
+        <v>0.1120092194725208</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -2464,19 +2464,19 @@
         <v>4568</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1704</v>
+        <v>1821</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9995</v>
+        <v>10525</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04869393577448047</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01817023005640164</v>
+        <v>0.01940929790329244</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1065512123942811</v>
+        <v>0.1121953860938751</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -2485,19 +2485,19 @@
         <v>12105</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7236</v>
+        <v>6423</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>20493</v>
+        <v>19146</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05607289597243263</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.033518882975783</v>
+        <v>0.02975088995541379</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09492951186105897</v>
+        <v>0.08868882550563949</v>
       </c>
     </row>
     <row r="30">
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5802</v>
+        <v>5969</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.008506177792011498</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0475251334473962</v>
+        <v>0.04889845176387755</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5123</v>
+        <v>5158</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004810009186051515</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0237298115187948</v>
+        <v>0.02389336828806998</v>
       </c>
     </row>
     <row r="31">
@@ -2891,19 +2891,19 @@
         <v>4162</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9587</v>
+        <v>9327</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05493862751624779</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01396475627441803</v>
+        <v>0.01381812729600099</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1265482756165413</v>
+        <v>0.1231191075646326</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2912,19 +2912,19 @@
         <v>5373</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2137</v>
+        <v>2105</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11611</v>
+        <v>11932</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0475764809001227</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01892537956173362</v>
+        <v>0.01864234561842546</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.102805889562589</v>
+        <v>0.1056528844050549</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2933,19 +2933,19 @@
         <v>9535</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5251</v>
+        <v>4335</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17859</v>
+        <v>17434</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0505321659887522</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02782593681032901</v>
+        <v>0.02297162721853048</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09464907976119862</v>
+        <v>0.09239594133869512</v>
       </c>
     </row>
     <row r="5">
@@ -2962,19 +2962,19 @@
         <v>4453</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1707</v>
+        <v>1746</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9938</v>
+        <v>10045</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05878583374204417</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02253438286502527</v>
+        <v>0.02305365157841692</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1311916071357612</v>
+        <v>0.1326023590058724</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -2983,19 +2983,19 @@
         <v>5992</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2069</v>
+        <v>2851</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12105</v>
+        <v>12738</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05305593029715996</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01832310362312956</v>
+        <v>0.02524737647234422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.10717991995494</v>
+        <v>0.1127886723603523</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -3004,19 +3004,19 @@
         <v>10445</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5581</v>
+        <v>5324</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17427</v>
+        <v>17460</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05535631781378957</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02957512627067204</v>
+        <v>0.02821799616507712</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09235583126332357</v>
+        <v>0.09253156535730067</v>
       </c>
     </row>
     <row r="6">
@@ -3033,19 +3033,19 @@
         <v>45191</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>36155</v>
+        <v>36371</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53338</v>
+        <v>53638</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5965524223388351</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4772718614293251</v>
+        <v>0.4801230784845337</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7040998486104311</v>
+        <v>0.7080542548516634</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>59</v>
@@ -3054,19 +3054,19 @@
         <v>62388</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52668</v>
+        <v>51714</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>73838</v>
+        <v>72986</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5524183379464577</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4663500465925554</v>
+        <v>0.457900167468704</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6538011718583521</v>
+        <v>0.646254846653695</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>100</v>
@@ -3075,19 +3075,19 @@
         <v>107580</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>94547</v>
+        <v>93861</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>121411</v>
+        <v>121801</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5701368733058532</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5010667479475699</v>
+        <v>0.4974304997100874</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6434372365150509</v>
+        <v>0.6455035592883358</v>
       </c>
     </row>
     <row r="7">
@@ -3104,19 +3104,19 @@
         <v>14393</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8022</v>
+        <v>8788</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21839</v>
+        <v>23662</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1900026552621557</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1058949909569527</v>
+        <v>0.1160036990585071</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2882864057156675</v>
+        <v>0.3123594020484677</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -3125,19 +3125,19 @@
         <v>18012</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10737</v>
+        <v>11523</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27420</v>
+        <v>27158</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1594866698885439</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09507444945433667</v>
+        <v>0.1020346903962553</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2427873306458537</v>
+        <v>0.2404706534942269</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -3146,19 +3146,19 @@
         <v>32405</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22560</v>
+        <v>22248</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43919</v>
+        <v>43410</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1717379394756053</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1195631546354914</v>
+        <v>0.1179049029540048</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2327575132296178</v>
+        <v>0.2300612376302221</v>
       </c>
     </row>
     <row r="8">
@@ -3175,19 +3175,19 @@
         <v>7554</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3203</v>
+        <v>3092</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13963</v>
+        <v>14167</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09972046114071718</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04227848124896842</v>
+        <v>0.04082034406777064</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1843147654214687</v>
+        <v>0.1870119154535701</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -3196,19 +3196,19 @@
         <v>21171</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13700</v>
+        <v>13608</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30982</v>
+        <v>30578</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1874625809677158</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1213101401241225</v>
+        <v>0.1204956681488679</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2743269461964077</v>
+        <v>0.2707558338434399</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -3217,19 +3217,19 @@
         <v>28726</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19769</v>
+        <v>19786</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38608</v>
+        <v>39246</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1522367034159998</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1047678243885698</v>
+        <v>0.1048615288001234</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2046072499934978</v>
+        <v>0.207990689824617</v>
       </c>
     </row>
     <row r="9">
@@ -3368,19 +3368,19 @@
         <v>11096</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5505</v>
+        <v>5597</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20000</v>
+        <v>19208</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06115040861677336</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03033803556047448</v>
+        <v>0.03084628738935331</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1102208635820875</v>
+        <v>0.10585523817656</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -3389,19 +3389,19 @@
         <v>9798</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4855</v>
+        <v>5382</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16836</v>
+        <v>16919</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08540719597038479</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04232587914936584</v>
+        <v>0.04691229382591331</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1467607365272856</v>
+        <v>0.1474872897301011</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -3410,19 +3410,19 @@
         <v>20894</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13127</v>
+        <v>13235</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31618</v>
+        <v>31568</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07054573088475567</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04432101957692383</v>
+        <v>0.04468502384577086</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1067534233347087</v>
+        <v>0.1065856665662557</v>
       </c>
     </row>
     <row r="12">
@@ -3439,19 +3439,19 @@
         <v>15388</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8794</v>
+        <v>8974</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24596</v>
+        <v>25137</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08480182485575199</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04846323062818619</v>
+        <v>0.04945427623778625</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1355482348725848</v>
+        <v>0.1385281596593852</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -3460,19 +3460,19 @@
         <v>9375</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5068</v>
+        <v>4233</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15665</v>
+        <v>16503</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08172695274390467</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04417494515604919</v>
+        <v>0.03689651250554251</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.136553054379402</v>
+        <v>0.1438587954690389</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -3481,19 +3481,19 @@
         <v>24763</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16517</v>
+        <v>15961</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>36500</v>
+        <v>37170</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08361084214223384</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05576777106642261</v>
+        <v>0.05389227048538477</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1232391259076107</v>
+        <v>0.1255009258924965</v>
       </c>
     </row>
     <row r="13">
@@ -3510,19 +3510,19 @@
         <v>121166</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106139</v>
+        <v>106659</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>132472</v>
+        <v>133493</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6677382476318158</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5849237934392186</v>
+        <v>0.5877880651862236</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7300434808161925</v>
+        <v>0.7356664128235987</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -3531,19 +3531,19 @@
         <v>60270</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49061</v>
+        <v>48318</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70261</v>
+        <v>71438</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5253842424646655</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4276728053404246</v>
+        <v>0.4211982312945245</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6124736239764964</v>
+        <v>0.6227343111963561</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>174</v>
@@ -3552,19 +3552,19 @@
         <v>181436</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>164710</v>
+        <v>163675</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>199634</v>
+        <v>197850</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6126006181021464</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5561245380891646</v>
+        <v>0.5526324228301629</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.674044176044919</v>
+        <v>0.6680179327752207</v>
       </c>
     </row>
     <row r="14">
@@ -3581,19 +3581,19 @@
         <v>22649</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14691</v>
+        <v>14596</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33486</v>
+        <v>32551</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1248144185789124</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08096254341033163</v>
+        <v>0.08043490280830469</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1845383025617211</v>
+        <v>0.1793866391976959</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -3602,19 +3602,19 @@
         <v>18937</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12066</v>
+        <v>11339</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27679</v>
+        <v>28291</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1650744358459853</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1051781534936683</v>
+        <v>0.09884499795909028</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2412854980709037</v>
+        <v>0.2466169797132308</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -3623,19 +3623,19 @@
         <v>41585</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30829</v>
+        <v>30944</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54092</v>
+        <v>54908</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1404082328472461</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1040917074240812</v>
+        <v>0.1044796826492011</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1826366381313902</v>
+        <v>0.1853909387133933</v>
       </c>
     </row>
     <row r="15">
@@ -3652,19 +3652,19 @@
         <v>10148</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5127</v>
+        <v>5015</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17404</v>
+        <v>17851</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05592749059709493</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02825202930100458</v>
+        <v>0.02763979502089067</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09591179595604914</v>
+        <v>0.0983737829842795</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>15</v>
@@ -3673,19 +3673,19 @@
         <v>16336</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9780</v>
+        <v>10155</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>25350</v>
+        <v>26795</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1424071729750597</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08524974583455446</v>
+        <v>0.08851865332563101</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2209762472905669</v>
+        <v>0.2335742830893716</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>25</v>
@@ -3694,19 +3694,19 @@
         <v>26485</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>16952</v>
+        <v>18031</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>36200</v>
+        <v>39476</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08942345499374703</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05723661681374384</v>
+        <v>0.06088020116973949</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1222249341712245</v>
+        <v>0.1332869747052366</v>
       </c>
     </row>
     <row r="16">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5107</v>
+        <v>5025</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005567609719651583</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02814268621948573</v>
+        <v>0.02769121936381355</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5624</v>
+        <v>5135</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003411121029870938</v>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01898972181632981</v>
+        <v>0.01733938087991132</v>
       </c>
     </row>
     <row r="17">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4578</v>
+        <v>4786</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04166324653230469</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1757070013987722</v>
+        <v>0.1837061878621265</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7543</v>
+        <v>8413</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06491092088226105</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2720238597987409</v>
+        <v>0.3033862774396259</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10358</v>
+        <v>10905</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05364938520031159</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1925774079687384</v>
+        <v>0.2027547830325557</v>
       </c>
     </row>
     <row r="19">
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5024</v>
+        <v>4616</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03851383133961414</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1928218861104876</v>
+        <v>0.1771607873142374</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5240</v>
+        <v>5622</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03657255471625757</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1889739610473824</v>
+        <v>0.2027469008508931</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6285</v>
+        <v>6033</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03751293936004476</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1168543905145413</v>
+        <v>0.1121739413675821</v>
       </c>
     </row>
     <row r="20">
@@ -4003,19 +4003,19 @@
         <v>21089</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15715</v>
+        <v>16726</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24164</v>
+        <v>24154</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8094169954339271</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6031691613319994</v>
+        <v>0.641959268539299</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9274728604605645</v>
+        <v>0.9270637148217221</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -4024,19 +4024,19 @@
         <v>18907</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12732</v>
+        <v>12341</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23429</v>
+        <v>23373</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6818037666361751</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4591255518741645</v>
+        <v>0.4450376901981815</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8448748585998314</v>
+        <v>0.8428636427721313</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>37</v>
@@ -4045,19 +4045,19 @@
         <v>39996</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>31504</v>
+        <v>31925</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>46205</v>
+        <v>45892</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7436216030339635</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5857362982505285</v>
+        <v>0.5935577145539874</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8590670270506162</v>
+        <v>0.853247502381178</v>
       </c>
     </row>
     <row r="21">
@@ -4074,19 +4074,19 @@
         <v>2877</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>848</v>
+        <v>886</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7464</v>
+        <v>7251</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1104059266941541</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03254254911545045</v>
+        <v>0.03398871206153237</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2864860539615121</v>
+        <v>0.2783086037645587</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6074</v>
+        <v>5324</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04485844487358955</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2190230498142857</v>
+        <v>0.1919978591748716</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -4116,19 +4116,19 @@
         <v>4121</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>971</v>
+        <v>1014</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9210</v>
+        <v>9234</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07661066637636568</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01805866237739268</v>
+        <v>0.018847667510335</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1712430953231136</v>
+        <v>0.1716799947376612</v>
       </c>
     </row>
     <row r="22">
@@ -4158,19 +4158,19 @@
         <v>4766</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1753</v>
+        <v>1893</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10758</v>
+        <v>10978</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1718543128917167</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06319806983696369</v>
+        <v>0.06824944661093842</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3879509550142231</v>
+        <v>0.3958617951603339</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -4179,19 +4179,19 @@
         <v>4766</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1008</v>
+        <v>1746</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11548</v>
+        <v>11474</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08860540602931444</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01874967960527251</v>
+        <v>0.03246147070051525</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2146982561392429</v>
+        <v>0.2133295855215522</v>
       </c>
     </row>
     <row r="23">
@@ -4330,19 +4330,19 @@
         <v>16344</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9305</v>
+        <v>9848</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26828</v>
+        <v>25292</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05769680169407103</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03285039618598073</v>
+        <v>0.0347648420851932</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09470851334096127</v>
+        <v>0.08928677129417584</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -4351,19 +4351,19 @@
         <v>16971</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10201</v>
+        <v>10168</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27756</v>
+        <v>26163</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06645196351331892</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0399436513776459</v>
+        <v>0.0398140732805715</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1086847052253513</v>
+        <v>0.1024446846185351</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>32</v>
@@ -4372,19 +4372,19 @@
         <v>33314</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24278</v>
+        <v>23781</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>46068</v>
+        <v>46672</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06184778952385563</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04507263527642714</v>
+        <v>0.04414935136595047</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08552431647847851</v>
+        <v>0.0866455649725074</v>
       </c>
     </row>
     <row r="26">
@@ -4401,19 +4401,19 @@
         <v>20845</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12813</v>
+        <v>13461</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>31638</v>
+        <v>32067</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.073586887343319</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04523470507599458</v>
+        <v>0.04751966819007564</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1116884357022961</v>
+        <v>0.1132039989642806</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -4422,19 +4422,19 @@
         <v>16382</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10046</v>
+        <v>9203</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25786</v>
+        <v>24613</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06414488506262318</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03933680361977451</v>
+        <v>0.03603659558888422</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1009697267448279</v>
+        <v>0.09637448432357262</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>36</v>
@@ -4443,19 +4443,19 @@
         <v>37226</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>27613</v>
+        <v>26881</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>53275</v>
+        <v>50590</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0691102554585946</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05126419795165289</v>
+        <v>0.04990446531523507</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09890374099770756</v>
+        <v>0.09391912506746151</v>
       </c>
     </row>
     <row r="27">
@@ -4472,19 +4472,19 @@
         <v>187446</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>172127</v>
+        <v>171602</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>205402</v>
+        <v>203918</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.661732312979165</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6076515547020478</v>
+        <v>0.6057975173657649</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.725121928868843</v>
+        <v>0.7198829674136246</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>132</v>
@@ -4493,19 +4493,19 @@
         <v>141565</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>123847</v>
+        <v>125554</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>156843</v>
+        <v>156552</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5543240225655059</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.484944417437743</v>
+        <v>0.4916276911831091</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6141458311479453</v>
+        <v>0.6130054229539311</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>311</v>
@@ -4514,19 +4514,19 @@
         <v>329012</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>305756</v>
+        <v>304951</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>351367</v>
+        <v>352205</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6108080107755344</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5676344232773403</v>
+        <v>0.5661386558322182</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6523110226653805</v>
+        <v>0.653865748756386</v>
       </c>
     </row>
     <row r="28">
@@ -4543,19 +4543,19 @@
         <v>39919</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29331</v>
+        <v>29653</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>53038</v>
+        <v>52910</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.140922467189578</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1035468103982288</v>
+        <v>0.1046837854457823</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1872360046388425</v>
+        <v>0.1867839411068937</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>36</v>
@@ -4564,19 +4564,19 @@
         <v>38193</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>27849</v>
+        <v>28145</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>50453</v>
+        <v>51410</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1495498677884052</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1090482638157982</v>
+        <v>0.1102067127724726</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1975580828702299</v>
+        <v>0.2013064907880024</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>74</v>
@@ -4585,19 +4585,19 @@
         <v>78111</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>62344</v>
+        <v>60690</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>94941</v>
+        <v>94440</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1450128810080498</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1157417492144502</v>
+        <v>0.1126714547668876</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.17625682892177</v>
+        <v>0.1753269294708293</v>
       </c>
     </row>
     <row r="29">
@@ -4614,19 +4614,19 @@
         <v>17703</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10893</v>
+        <v>11205</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27175</v>
+        <v>26885</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06249496581984791</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03845385972078933</v>
+        <v>0.03955626989841611</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09593378552948117</v>
+        <v>0.0949114378636413</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>39</v>
@@ -4635,19 +4635,19 @@
         <v>42274</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>31407</v>
+        <v>31166</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>56348</v>
+        <v>55715</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1655292610701467</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1229797442527596</v>
+        <v>0.1220354210527369</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2206411728344796</v>
+        <v>0.2181620471133307</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>56</v>
@@ -4656,19 +4656,19 @@
         <v>59976</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>46733</v>
+        <v>47033</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>76292</v>
+        <v>74948</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1113454741787173</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08675917802874203</v>
+        <v>0.08731634360282693</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1416355421769236</v>
+        <v>0.1391404434193426</v>
       </c>
     </row>
     <row r="30">
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5116</v>
+        <v>5476</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.00356656497401903</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01806072675185551</v>
+        <v>0.01933170146754861</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5700</v>
+        <v>5381</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001875589055248312</v>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0105815584886419</v>
+        <v>0.009989193304308733</v>
       </c>
     </row>
     <row r="31">
@@ -5062,19 +5062,19 @@
         <v>3686</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>970</v>
+        <v>895</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8481</v>
+        <v>9250</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0821072052500091</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02159965954224782</v>
+        <v>0.01993126130802073</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1889030833058278</v>
+        <v>0.2060357685983059</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6497</v>
+        <v>6212</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01774575385272165</v>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08968255658698235</v>
+        <v>0.08575998916360643</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -5104,19 +5104,19 @@
         <v>4972</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1843</v>
+        <v>1763</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11462</v>
+        <v>10566</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0423725324822872</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01571049511911122</v>
+        <v>0.01502895595435866</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09768554002331931</v>
+        <v>0.09005062738119696</v>
       </c>
     </row>
     <row r="5">
@@ -5133,19 +5133,19 @@
         <v>5812</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2727</v>
+        <v>2014</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11413</v>
+        <v>11003</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1294572869403124</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06074670539074049</v>
+        <v>0.04484946615038884</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2542047436368184</v>
+        <v>0.2450618056520013</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -5154,19 +5154,19 @@
         <v>6486</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2776</v>
+        <v>2282</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12499</v>
+        <v>12488</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0895324095276316</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03832458431136826</v>
+        <v>0.03149970577034888</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1725459455470428</v>
+        <v>0.1723959529722457</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -5175,19 +5175,19 @@
         <v>12298</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6943</v>
+        <v>7204</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20073</v>
+        <v>20415</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1048089624410432</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05916887288919139</v>
+        <v>0.06139447180827155</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.171077049071741</v>
+        <v>0.1739853400634573</v>
       </c>
     </row>
     <row r="6">
@@ -5204,19 +5204,19 @@
         <v>24172</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17412</v>
+        <v>17683</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30163</v>
+        <v>29932</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5383854388488273</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3878297465420902</v>
+        <v>0.3938585188215002</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6718268896749953</v>
+        <v>0.6666825866906696</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -5225,19 +5225,19 @@
         <v>49702</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40995</v>
+        <v>40700</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57870</v>
+        <v>57734</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6861200494605123</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5659271671653026</v>
+        <v>0.5618498976638105</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7988748416349735</v>
+        <v>0.7969957272921673</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>68</v>
@@ -5246,19 +5246,19 @@
         <v>73874</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>62229</v>
+        <v>63226</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>84406</v>
+        <v>84510</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6295919962163251</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5303484582158949</v>
+        <v>0.5388460312952735</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.719351917534706</v>
+        <v>0.7202392421948854</v>
       </c>
     </row>
     <row r="7">
@@ -5275,19 +5275,19 @@
         <v>10254</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5722</v>
+        <v>5661</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15974</v>
+        <v>16064</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2283849101271261</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1274557940033493</v>
+        <v>0.1260894600297301</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.35578593257146</v>
+        <v>0.3577924560732464</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -5296,19 +5296,19 @@
         <v>14966</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8126</v>
+        <v>8742</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23347</v>
+        <v>25205</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2066017871591344</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1121773965227549</v>
+        <v>0.1206773329780881</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3223002554907767</v>
+        <v>0.3479436664688808</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -5317,19 +5317,19 @@
         <v>25220</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15968</v>
+        <v>16172</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34636</v>
+        <v>35213</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2149367164614892</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1360850175642809</v>
+        <v>0.1378245509364406</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2951869631613911</v>
+        <v>0.300107138564586</v>
       </c>
     </row>
     <row r="8">
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4820</v>
+        <v>3948</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02166515883372508</v>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1073547830884958</v>
+        <v>0.08794424504923992</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4618</v>
+        <v>5604</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008289792398855238</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03935717670127655</v>
+        <v>0.04776449776866609</v>
       </c>
     </row>
     <row r="9">
@@ -5531,19 +5531,19 @@
         <v>9131</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3732</v>
+        <v>4282</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16486</v>
+        <v>17868</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07740151051187315</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03163967228673269</v>
+        <v>0.03630071027281214</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1397548714687182</v>
+        <v>0.1514698719976046</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -5552,19 +5552,19 @@
         <v>9945</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5012</v>
+        <v>5147</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17203</v>
+        <v>17660</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1158506477296529</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05838007980208638</v>
+        <v>0.05995270389554674</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2003974224931437</v>
+        <v>0.2057247752365211</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -5573,19 +5573,19 @@
         <v>19076</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11822</v>
+        <v>11362</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30095</v>
+        <v>29343</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09359612460541904</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05800529788646952</v>
+        <v>0.0557479007729548</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1476586596736256</v>
+        <v>0.1439686094956114</v>
       </c>
     </row>
     <row r="12">
@@ -5602,19 +5602,19 @@
         <v>8223</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3586</v>
+        <v>3473</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15844</v>
+        <v>16037</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06970669123785304</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03040190774926421</v>
+        <v>0.02943911555329471</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1343129109139322</v>
+        <v>0.1359441299978615</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -5623,19 +5623,19 @@
         <v>6098</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2781</v>
+        <v>2108</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12346</v>
+        <v>12590</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07103002732476162</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03240085501838885</v>
+        <v>0.02455528516538555</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1438152207286503</v>
+        <v>0.1466568639752305</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -5644,19 +5644,19 @@
         <v>14321</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8325</v>
+        <v>8081</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22772</v>
+        <v>23266</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07026407480467174</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04084831182946248</v>
+        <v>0.03964778022903481</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1117320060684505</v>
+        <v>0.114154645276814</v>
       </c>
     </row>
     <row r="13">
@@ -5673,19 +5673,19 @@
         <v>75467</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64146</v>
+        <v>62720</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85895</v>
+        <v>85144</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.639731858440315</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.543758954508353</v>
+        <v>0.5316781408736422</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7281268369565859</v>
+        <v>0.7217580925844508</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -5694,19 +5694,19 @@
         <v>50113</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40413</v>
+        <v>40934</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59655</v>
+        <v>58815</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5837570740096761</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.470762573511587</v>
+        <v>0.4768379318206534</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6949199672181573</v>
+        <v>0.6851357119971613</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -5715,19 +5715,19 @@
         <v>125580</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111460</v>
+        <v>110170</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>140322</v>
+        <v>139528</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6161555158116321</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.54687427349505</v>
+        <v>0.5405452659702955</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6884897312564773</v>
+        <v>0.6845915690209823</v>
       </c>
     </row>
     <row r="14">
@@ -5744,19 +5744,19 @@
         <v>21143</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13265</v>
+        <v>13540</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30248</v>
+        <v>31010</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1792314447622374</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1124475066763385</v>
+        <v>0.1147810716898189</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2564137408454383</v>
+        <v>0.2628735417678822</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -5765,19 +5765,19 @@
         <v>12403</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6948</v>
+        <v>6552</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19945</v>
+        <v>20138</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1444818839644905</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08093675141810766</v>
+        <v>0.07632358320336927</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2323323938564739</v>
+        <v>0.2345914133930328</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -5786,19 +5786,19 @@
         <v>33546</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23719</v>
+        <v>23406</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>45565</v>
+        <v>45882</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.164595076620809</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1163785374870579</v>
+        <v>0.114838768058659</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2235648826121079</v>
+        <v>0.2251179803427697</v>
       </c>
     </row>
     <row r="15">
@@ -5815,19 +5815,19 @@
         <v>4002</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8980</v>
+        <v>9268</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03392849504772143</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.008745658453141833</v>
+        <v>0.00860101791503892</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07612247514095401</v>
+        <v>0.0785667951287808</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -5836,19 +5836,19 @@
         <v>4757</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1520</v>
+        <v>1205</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11425</v>
+        <v>11278</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05541538297803794</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01770279754581824</v>
+        <v>0.01403497958773818</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1330898578483829</v>
+        <v>0.1313783153459258</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>8</v>
@@ -5857,19 +5857,19 @@
         <v>8760</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3919</v>
+        <v>4168</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>17072</v>
+        <v>16959</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04297868143114526</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01922685808610211</v>
+        <v>0.02044961255105721</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08376343633697556</v>
+        <v>0.08320962528658322</v>
       </c>
     </row>
     <row r="16">
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8886</v>
+        <v>9086</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02946498399338085</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1035087165839585</v>
+        <v>0.1058455997193297</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7467</v>
+        <v>8895</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01241052672632284</v>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03663702637316296</v>
+        <v>0.04364112869896698</v>
       </c>
     </row>
     <row r="17">
@@ -6024,19 +6024,19 @@
         <v>5491</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1745</v>
+        <v>1865</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11117</v>
+        <v>11730</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1782910923554974</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05667578669130814</v>
+        <v>0.0605481678427381</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3609991089156971</v>
+        <v>0.3809089866101585</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6661</v>
+        <v>7083</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06221395891732952</v>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2148188216327333</v>
+        <v>0.2284220958116292</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -6066,19 +6066,19 @@
         <v>7420</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3380</v>
+        <v>3561</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>14648</v>
+        <v>13686</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1200543813786747</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05468466584631995</v>
+        <v>0.05761183930012333</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2370177914388826</v>
+        <v>0.221438879341324</v>
       </c>
     </row>
     <row r="19">
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6071</v>
+        <v>6927</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06397066418457452</v>
@@ -6107,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1971358465709911</v>
+        <v>0.2249233305044711</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7481</v>
+        <v>7584</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07563537907417013</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2412670861770134</v>
+        <v>0.2445905093675186</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -6137,19 +6137,19 @@
         <v>4315</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10565</v>
+        <v>10790</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06982293335707504</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02385461767947962</v>
+        <v>0.02369545873263568</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1709536234887124</v>
+        <v>0.1745797376717516</v>
       </c>
     </row>
     <row r="20">
@@ -6166,19 +6166,19 @@
         <v>16010</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9839</v>
+        <v>9917</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22340</v>
+        <v>21711</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5198791614162743</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3194967014023731</v>
+        <v>0.322022509889032</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7254057106061274</v>
+        <v>0.7049900923739189</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -6187,19 +6187,19 @@
         <v>20203</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14129</v>
+        <v>13726</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25722</v>
+        <v>25378</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6515575500602337</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4556827888806701</v>
+        <v>0.4426697001040905</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8295489063767481</v>
+        <v>0.8184746798526306</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>33</v>
@@ -6208,19 +6208,19 @@
         <v>36213</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27235</v>
+        <v>26696</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>44006</v>
+        <v>43961</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5859431314180565</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4406761447656148</v>
+        <v>0.43195796481611</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7120414415486731</v>
+        <v>0.7113035193697862</v>
       </c>
     </row>
     <row r="21">
@@ -6237,19 +6237,19 @@
         <v>6457</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2252</v>
+        <v>2239</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13332</v>
+        <v>12573</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2096626488130107</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07311486323824014</v>
+        <v>0.0727187901919527</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4329204433032158</v>
+        <v>0.4082528412875521</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -6258,19 +6258,19 @@
         <v>6530</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2206</v>
+        <v>2102</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12927</v>
+        <v>12804</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2105931119482666</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07114439707512288</v>
+        <v>0.06779913032712594</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4168898546913803</v>
+        <v>0.4129286969426385</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>10</v>
@@ -6279,19 +6279,19 @@
         <v>12987</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6658</v>
+        <v>6814</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>21908</v>
+        <v>22053</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2101294686859476</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1077339891738934</v>
+        <v>0.1102546134830454</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.354473907354708</v>
+        <v>0.3568336479688173</v>
       </c>
     </row>
     <row r="22">
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5442</v>
+        <v>4111</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02819643323064303</v>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.176713513271418</v>
+        <v>0.133486391221403</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -6345,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4462</v>
+        <v>3809</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01405008516024606</v>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.072200691822482</v>
+        <v>0.06162732144378916</v>
       </c>
     </row>
     <row r="23">
@@ -6493,19 +6493,19 @@
         <v>18308</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11105</v>
+        <v>11229</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27467</v>
+        <v>27956</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09453611163457001</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05734361610763801</v>
+        <v>0.05798147134132985</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1418301323600698</v>
+        <v>0.1443579198568794</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -6514,19 +6514,19 @@
         <v>13160</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6924</v>
+        <v>7242</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22000</v>
+        <v>22374</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06952104651144224</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03657620587785486</v>
+        <v>0.03826052865424272</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1162250905754549</v>
+        <v>0.1181993378517661</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>29</v>
@@ -6535,19 +6535,19 @@
         <v>31468</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21890</v>
+        <v>21638</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>44547</v>
+        <v>45078</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08217126001633479</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05716079232426449</v>
+        <v>0.0565036711929429</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1163264155723188</v>
+        <v>0.1177121947659213</v>
       </c>
     </row>
     <row r="26">
@@ -6564,19 +6564,19 @@
         <v>16005</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9562</v>
+        <v>9700</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25155</v>
+        <v>25906</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08264664645122931</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04937379908413741</v>
+        <v>0.05008880021828015</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1298947233123717</v>
+        <v>0.1337727700829662</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -6585,19 +6585,19 @@
         <v>14928</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8940</v>
+        <v>8789</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25165</v>
+        <v>23235</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07886505178745513</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04723053026155193</v>
+        <v>0.04642946303028663</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.132943768206235</v>
+        <v>0.1227494114570068</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>29</v>
@@ -6606,19 +6606,19 @@
         <v>30934</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20865</v>
+        <v>20920</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42588</v>
+        <v>42965</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08077741858123481</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05448518870725331</v>
+        <v>0.05462737894436279</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1112109584017937</v>
+        <v>0.1121941066360287</v>
       </c>
     </row>
     <row r="27">
@@ -6635,19 +6635,19 @@
         <v>115649</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>100727</v>
+        <v>101534</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>130039</v>
+        <v>130470</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5971772749009012</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5201252611158794</v>
+        <v>0.5242903868228623</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6714810741953635</v>
+        <v>0.6737064889198847</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>109</v>
@@ -6656,19 +6656,19 @@
         <v>120017</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>106247</v>
+        <v>105420</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>133846</v>
+        <v>132834</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6340363148773664</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5612917782992473</v>
+        <v>0.5569224088715902</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7070919600714557</v>
+        <v>0.7017457957213284</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>222</v>
@@ -6677,19 +6677,19 @@
         <v>235667</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>216831</v>
+        <v>213664</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>253902</v>
+        <v>252380</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6153965582749917</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5662116855210306</v>
+        <v>0.5579408105536355</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6630141884450527</v>
+        <v>0.6590401001307263</v>
       </c>
     </row>
     <row r="28">
@@ -6706,19 +6706,19 @@
         <v>37854</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27925</v>
+        <v>28328</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>50930</v>
+        <v>49753</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1954660320863331</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1441977767580302</v>
+        <v>0.1462762828876006</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2629889773272909</v>
+        <v>0.2569115186656878</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>29</v>
@@ -6727,19 +6727,19 @@
         <v>33899</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>23820</v>
+        <v>23491</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>46302</v>
+        <v>45770</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.179083879794422</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1258391100194836</v>
+        <v>0.1240986025985847</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2446064856859713</v>
+        <v>0.2417950347434869</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>65</v>
@@ -6748,19 +6748,19 @@
         <v>71753</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>56745</v>
+        <v>58186</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>88186</v>
+        <v>89602</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1873683964703645</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1481786456954391</v>
+        <v>0.1519415852585771</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.230279972865713</v>
+        <v>0.233976896743278</v>
       </c>
     </row>
     <row r="29">
@@ -6777,19 +6777,19 @@
         <v>5843</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2772</v>
+        <v>1980</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12480</v>
+        <v>11734</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03017393492696632</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0143127036742983</v>
+        <v>0.01022440482409797</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06444363718348127</v>
+        <v>0.06059092833819319</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -6798,19 +6798,19 @@
         <v>4757</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1219</v>
+        <v>1550</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11546</v>
+        <v>11530</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02513117689503062</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006437204555586443</v>
+        <v>0.008185914691812254</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06099700539255028</v>
+        <v>0.06091002177820733</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -6819,19 +6819,19 @@
         <v>10601</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5066</v>
+        <v>5312</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>18393</v>
+        <v>18670</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02768131879726054</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01322754549918177</v>
+        <v>0.01387243635213349</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04802950760492046</v>
+        <v>0.04875281085686639</v>
       </c>
     </row>
     <row r="30">
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8928</v>
+        <v>9561</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01336253013428362</v>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04716804411489803</v>
+        <v>0.05050860820277882</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8516</v>
+        <v>8544</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.00660504785981363</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02223772146608769</v>
+        <v>0.02231123218927842</v>
       </c>
     </row>
     <row r="31">
@@ -7225,19 +7225,19 @@
         <v>5332</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2342</v>
+        <v>2363</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10315</v>
+        <v>10183</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1409094236448848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06188330710840328</v>
+        <v>0.06245185833464807</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2725819392248284</v>
+        <v>0.2690810648900981</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -7246,19 +7246,19 @@
         <v>7732</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3972</v>
+        <v>3985</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12394</v>
+        <v>12363</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09147623885855298</v>
+        <v>0.09147623885855297</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04700009734031495</v>
+        <v>0.04714279046702143</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1466337319552344</v>
+        <v>0.1462733622990655</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -7267,19 +7267,19 @@
         <v>13064</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7803</v>
+        <v>8124</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19344</v>
+        <v>20262</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1067640893103309</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06376971279543778</v>
+        <v>0.06639060796745624</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1580855966199673</v>
+        <v>0.1655917995925429</v>
       </c>
     </row>
     <row r="5">
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1707</v>
+        <v>1748</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009104543320338507</v>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04510633154005117</v>
+        <v>0.04618728365268233</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -7317,19 +7317,19 @@
         <v>3237</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1124</v>
+        <v>1155</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8275</v>
+        <v>7939</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03829307375284668</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01329469792895392</v>
+        <v>0.01366471568594038</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09790757522780665</v>
+        <v>0.09392785807195089</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -7338,19 +7338,19 @@
         <v>3581</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1327</v>
+        <v>1198</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8903</v>
+        <v>8300</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02926614396695245</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01084455875873904</v>
+        <v>0.009786922283668568</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.072758374020901</v>
+        <v>0.06782727226402428</v>
       </c>
     </row>
     <row r="6">
@@ -7367,19 +7367,19 @@
         <v>21916</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16294</v>
+        <v>16703</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27154</v>
+        <v>27467</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5791418686852501</v>
+        <v>0.57914186868525</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4305681991761365</v>
+        <v>0.4413762833992914</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7175499456587792</v>
+        <v>0.7258038257923406</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>105</v>
@@ -7388,19 +7388,19 @@
         <v>54024</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46757</v>
+        <v>47317</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60475</v>
+        <v>60949</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.639179072391578</v>
+        <v>0.6391790723915779</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5531961730956737</v>
+        <v>0.5598268265071333</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7155081729202386</v>
+        <v>0.7211105865521382</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>139</v>
@@ -7409,19 +7409,19 @@
         <v>75941</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>65565</v>
+        <v>67341</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>83714</v>
+        <v>84204</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.620611792217895</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5358189157617796</v>
+        <v>0.55033264988607</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6841402212187289</v>
+        <v>0.6881473710472009</v>
       </c>
     </row>
     <row r="7">
@@ -7438,19 +7438,19 @@
         <v>10250</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6065</v>
+        <v>5291</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16563</v>
+        <v>15425</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2708441643495265</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1602772434927816</v>
+        <v>0.1398030921467566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4376849033244571</v>
+        <v>0.4076062796208083</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -7459,19 +7459,19 @@
         <v>18411</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13036</v>
+        <v>12745</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24387</v>
+        <v>24015</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2178241951933792</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1542387376964519</v>
+        <v>0.1507876439938631</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2885299535320746</v>
+        <v>0.2841268341785611</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -7480,19 +7480,19 @@
         <v>28660</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21654</v>
+        <v>21409</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36846</v>
+        <v>36269</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2342213050077801</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1769672577944767</v>
+        <v>0.1749652253901001</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3011195799572979</v>
+        <v>0.2963990997953618</v>
       </c>
     </row>
     <row r="8">
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2606</v>
+        <v>2736</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.006020657909098072</v>
@@ -7534,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03082917388118916</v>
+        <v>0.03236608152866379</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2850</v>
+        <v>2580</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004158691739338871</v>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02329457905208149</v>
+        <v>0.02108120241970153</v>
       </c>
     </row>
     <row r="9">
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3051</v>
+        <v>3328</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.007206761894545113</v>
@@ -7597,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03609180543353529</v>
+        <v>0.03937061691995894</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -7609,16 +7609,16 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>3630</v>
+        <v>3634</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.004977977757702678</v>
+        <v>0.004977977757702679</v>
       </c>
       <c r="V9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02966566018688645</v>
+        <v>0.02969507078059978</v>
       </c>
     </row>
     <row r="10">
@@ -7710,19 +7710,19 @@
         <v>14448</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8617</v>
+        <v>7872</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24040</v>
+        <v>24128</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1030389684757415</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06145150159927829</v>
+        <v>0.0561436176570269</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1714472624579558</v>
+        <v>0.1720768747857961</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -7731,19 +7731,19 @@
         <v>10438</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5818</v>
+        <v>6117</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16750</v>
+        <v>16398</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.09401538042506959</v>
+        <v>0.09401538042506957</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05240263756554722</v>
+        <v>0.05509845837855407</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1508608153272074</v>
+        <v>0.1476956624910972</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>28</v>
@@ -7752,19 +7752,19 @@
         <v>24886</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16664</v>
+        <v>16867</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>35070</v>
+        <v>35282</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09905137131881686</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06632716276808447</v>
+        <v>0.06713448448212606</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1395841460217297</v>
+        <v>0.140428926789478</v>
       </c>
     </row>
     <row r="12">
@@ -7781,19 +7781,19 @@
         <v>16857</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8690</v>
+        <v>8832</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29578</v>
+        <v>29007</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1202225606548515</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06197446156846867</v>
+        <v>0.06298686372122402</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2109439482072551</v>
+        <v>0.2068685991832571</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -7802,19 +7802,19 @@
         <v>7294</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2792</v>
+        <v>2775</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17955</v>
+        <v>19052</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06569492083860094</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02514761512451168</v>
+        <v>0.02499722276449624</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1617156611235009</v>
+        <v>0.1715939144959535</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -7823,19 +7823,19 @@
         <v>24151</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15066</v>
+        <v>14083</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>38041</v>
+        <v>38910</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09612635188688794</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05996695048956662</v>
+        <v>0.05605141567433546</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1514116681774103</v>
+        <v>0.1548706744525549</v>
       </c>
     </row>
     <row r="13">
@@ -7852,19 +7852,19 @@
         <v>71279</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58115</v>
+        <v>57553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85146</v>
+        <v>84112</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5083468117553517</v>
+        <v>0.5083468117553515</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4144590042612672</v>
+        <v>0.4104561800165968</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6072369890322787</v>
+        <v>0.599864200384262</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -7873,19 +7873,19 @@
         <v>68573</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58221</v>
+        <v>57789</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78256</v>
+        <v>76989</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6176234323335713</v>
+        <v>0.6176234323335711</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5243858460145077</v>
+        <v>0.5204958384808293</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7048331681861281</v>
+        <v>0.6934243782277825</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>151</v>
@@ -7894,19 +7894,19 @@
         <v>139852</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>122785</v>
+        <v>123608</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>155937</v>
+        <v>156525</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5566370416604717</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4887054184194773</v>
+        <v>0.4919831226807586</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6206567666359049</v>
+        <v>0.6229961885670021</v>
       </c>
     </row>
     <row r="14">
@@ -7923,19 +7923,19 @@
         <v>33791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22910</v>
+        <v>23300</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45586</v>
+        <v>44978</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2409915397368153</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1633865223107968</v>
+        <v>0.1661722654073614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3251111230124841</v>
+        <v>0.3207699453408782</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -7944,19 +7944,19 @@
         <v>20366</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14183</v>
+        <v>13858</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28169</v>
+        <v>28596</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1834305802728948</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1277469473764361</v>
+        <v>0.1248156141627139</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2537169164338923</v>
+        <v>0.257555422517556</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>65</v>
@@ -7965,19 +7965,19 @@
         <v>54157</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42215</v>
+        <v>41891</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>67051</v>
+        <v>67542</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2155548822764725</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1680225729412382</v>
+        <v>0.1667321219162543</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2668738859941392</v>
+        <v>0.2688274853751936</v>
       </c>
     </row>
     <row r="15">
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7954</v>
+        <v>8856</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01732652307322733</v>
@@ -8006,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0567273860999469</v>
+        <v>0.06315809893849859</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -8015,19 +8015,19 @@
         <v>4356</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1453</v>
+        <v>1410</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10300</v>
+        <v>9989</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03923568612986349</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01308848468786821</v>
+        <v>0.01269592354071738</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09277316898322972</v>
+        <v>0.08997233359268988</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>7</v>
@@ -8036,19 +8036,19 @@
         <v>6786</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2878</v>
+        <v>2917</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>13406</v>
+        <v>14140</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.02700836092139191</v>
+        <v>0.0270083609213919</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0114549959374194</v>
+        <v>0.01160828014524034</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05336015173606878</v>
+        <v>0.0562807572392686</v>
       </c>
     </row>
     <row r="16">
@@ -8068,16 +8068,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8340</v>
+        <v>6654</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.01007359630401272</v>
+        <v>0.01007359630401271</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05948054854203864</v>
+        <v>0.04745555814785646</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -8102,16 +8102,16 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8087</v>
+        <v>6718</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.005621991935959071</v>
+        <v>0.00562199193595907</v>
       </c>
       <c r="V16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03218835226310762</v>
+        <v>0.0267378607808345</v>
       </c>
     </row>
     <row r="17">
@@ -8203,19 +8203,19 @@
         <v>9267</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2820</v>
+        <v>3165</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19848</v>
+        <v>19558</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2223963809834139</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06767844227503958</v>
+        <v>0.07596558005075793</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4763150229989248</v>
+        <v>0.4693757101674169</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -8224,19 +8224,19 @@
         <v>2594</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6225</v>
+        <v>6299</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07359830921858636</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01718203654418367</v>
+        <v>0.01698847066817423</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1766498593514177</v>
+        <v>0.1787624716203362</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -8245,19 +8245,19 @@
         <v>11861</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5316</v>
+        <v>5129</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>24388</v>
+        <v>24273</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1542168102843333</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06912403183132254</v>
+        <v>0.0666904172541217</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3171116361285837</v>
+        <v>0.3156113173593273</v>
       </c>
     </row>
     <row r="19">
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7612</v>
+        <v>7369</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05485220846504105</v>
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.18266988345498</v>
+        <v>0.1768368883176455</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3411</v>
+        <v>3645</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03083465851564964</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09679002882490581</v>
+        <v>0.103428657779514</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -8316,19 +8316,19 @@
         <v>3372</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1147</v>
+        <v>1060</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9497</v>
+        <v>8233</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04384731958864971</v>
+        <v>0.0438473195886497</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01491981382532622</v>
+        <v>0.01378428732155886</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1234855782616853</v>
+        <v>0.1070557377367298</v>
       </c>
     </row>
     <row r="20">
@@ -8345,19 +8345,19 @@
         <v>22993</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15137</v>
+        <v>14397</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>30185</v>
+        <v>30152</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5518013926336094</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3632712998837722</v>
+        <v>0.3455163123073283</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7243977235332162</v>
+        <v>0.7236027937961371</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -8366,19 +8366,19 @@
         <v>22354</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17746</v>
+        <v>17225</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26975</v>
+        <v>26610</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6343533984731281</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5035967645773131</v>
+        <v>0.488814875799706</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.765490606193428</v>
+        <v>0.7551385323516708</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>52</v>
@@ -8387,19 +8387,19 @@
         <v>45347</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>35522</v>
+        <v>34801</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>53609</v>
+        <v>55013</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5896268849382537</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4618772357033063</v>
+        <v>0.4525014470070136</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6970499281475827</v>
+        <v>0.7153124980572816</v>
       </c>
     </row>
     <row r="21">
@@ -8416,19 +8416,19 @@
         <v>5981</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2499</v>
+        <v>2665</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11558</v>
+        <v>11879</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1435298646127742</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05998067679122341</v>
+        <v>0.06395117276907276</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2773862262961017</v>
+        <v>0.2850859846684612</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -8437,19 +8437,19 @@
         <v>8433</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4668</v>
+        <v>4925</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12745</v>
+        <v>13067</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2393070754982788</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1324752071130559</v>
+        <v>0.1397727174661638</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3616760955093145</v>
+        <v>0.3708182495634856</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -8458,19 +8458,19 @@
         <v>14414</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9312</v>
+        <v>8564</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>21677</v>
+        <v>20808</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1874151720195102</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1210847973260845</v>
+        <v>0.1113601473643093</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.281862484112113</v>
+        <v>0.2705514588088926</v>
       </c>
     </row>
     <row r="22">
@@ -8490,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6412</v>
+        <v>5862</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0274201533051613</v>
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1538791844967067</v>
+        <v>0.14068747892805</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3225</v>
+        <v>4580</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02190655829435713</v>
@@ -8520,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09152435272705944</v>
+        <v>0.129971935218082</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7376</v>
+        <v>6653</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02489381316925318</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09590159954021991</v>
+        <v>0.08650028438681635</v>
       </c>
     </row>
     <row r="23">
@@ -8680,19 +8680,19 @@
         <v>29047</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18805</v>
+        <v>18122</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44928</v>
+        <v>43219</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1321956520656564</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08558218421956386</v>
+        <v>0.08247566744431988</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2044717458430032</v>
+        <v>0.1966921501351492</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -8701,19 +8701,19 @@
         <v>20764</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14423</v>
+        <v>14496</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28971</v>
+        <v>29181</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0899679565553964</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06249338175815912</v>
+        <v>0.06281123023771133</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1255316693209431</v>
+        <v>0.1264397694988573</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -8722,19 +8722,19 @@
         <v>49811</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37112</v>
+        <v>37055</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>66585</v>
+        <v>65964</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1105635237280126</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08237584157610381</v>
+        <v>0.0822506430926354</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1477966040188237</v>
+        <v>0.146417378523868</v>
       </c>
     </row>
     <row r="26">
@@ -8751,19 +8751,19 @@
         <v>19488</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10709</v>
+        <v>11378</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>32030</v>
+        <v>32695</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0886888073610913</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04873682534027032</v>
+        <v>0.05177983146754781</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1457689058206343</v>
+        <v>0.1487953081273649</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -8772,19 +8772,19 @@
         <v>11617</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6160</v>
+        <v>6010</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22551</v>
+        <v>23935</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05033670113383244</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02668975336824397</v>
+        <v>0.02604073342550421</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09771497820873208</v>
+        <v>0.1037079032373636</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -8793,19 +8793,19 @@
         <v>31105</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20419</v>
+        <v>20410</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>47810</v>
+        <v>46424</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06904204061471664</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04532325993002861</v>
+        <v>0.04530338125972096</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1061215055330876</v>
+        <v>0.1030460531205999</v>
       </c>
     </row>
     <row r="27">
@@ -8822,19 +8822,19 @@
         <v>116188</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>98894</v>
+        <v>100505</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>132089</v>
+        <v>132670</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5287799677200763</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4500716754165633</v>
+        <v>0.4574039807939569</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.601146225445514</v>
+        <v>0.6037911406519429</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>226</v>
@@ -8843,19 +8843,19 @@
         <v>144952</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>131038</v>
+        <v>132482</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>157291</v>
+        <v>157565</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6280722568195362</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5677850844618614</v>
+        <v>0.5740406647316993</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6815399806554328</v>
+        <v>0.6827264291457624</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>342</v>
@@ -8864,19 +8864,19 @@
         <v>261140</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>240371</v>
+        <v>240690</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>282436</v>
+        <v>285323</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5796447737385831</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5335455385707709</v>
+        <v>0.5342529623980892</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.626915965019459</v>
+        <v>0.6333230909507169</v>
       </c>
     </row>
     <row r="28">
@@ -8893,19 +8893,19 @@
         <v>50021</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>38026</v>
+        <v>38096</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>63545</v>
+        <v>64034</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2276506066536504</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.17305875981363</v>
+        <v>0.1733794155932616</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2891953119970547</v>
+        <v>0.2914242572549003</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>77</v>
@@ -8914,19 +8914,19 @@
         <v>47210</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>37549</v>
+        <v>37949</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>58314</v>
+        <v>58712</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2045583911704981</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.162698901570494</v>
+        <v>0.1644310159277129</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2526734926531851</v>
+        <v>0.2543970984236272</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>130</v>
@@ -8935,19 +8935,19 @@
         <v>97231</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>80893</v>
+        <v>80682</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>114478</v>
+        <v>114740</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2158210771731534</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1795550525029344</v>
+        <v>0.1790870101717333</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2541037109364723</v>
+        <v>0.254685744444164</v>
       </c>
     </row>
     <row r="29">
@@ -8964,19 +8964,19 @@
         <v>3572</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>929</v>
+        <v>956</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10414</v>
+        <v>9980</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01625660168385385</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004226943600901729</v>
+        <v>0.00434867539500375</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0473941977497119</v>
+        <v>0.04542056491242573</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -8985,19 +8985,19 @@
         <v>5637</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2331</v>
+        <v>2224</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12751</v>
+        <v>11729</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.02442537000652994</v>
+        <v>0.02442537000652993</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01010081344173839</v>
+        <v>0.009638203921884804</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05524902496693686</v>
+        <v>0.05082368156116104</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -9006,19 +9006,19 @@
         <v>9209</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4457</v>
+        <v>4241</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>16829</v>
+        <v>17213</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.02044124502233947</v>
+        <v>0.02044124502233946</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009892362840214393</v>
+        <v>0.009413095273876539</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03735481637856963</v>
+        <v>0.03820675424280254</v>
       </c>
     </row>
     <row r="30">
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6400</v>
+        <v>7237</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.00642836451567158</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02912807282569661</v>
+        <v>0.03293759793742625</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3646</v>
+        <v>3136</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002639324314206926</v>
@@ -9068,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01579948609194881</v>
+        <v>0.0135868853543117</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -9080,16 +9080,16 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7973</v>
+        <v>7713</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.004487339723194801</v>
+        <v>0.0044873397231948</v>
       </c>
       <c r="V30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01769804623217954</v>
+        <v>0.01712125473541951</v>
       </c>
     </row>
     <row r="31">
